--- a/Question_Set2/Role-specific skills/Retail Sales.xlsx
+++ b/Question_Set2/Role-specific skills/Retail Sales.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You work in the technology department of a department store. You are conducting a needs assessment with a client to determine the best camera to show them. The client mentions that they will be using the product on family trips.  How should you respond?', 'ques_type': 2, 'options': ['"What sort of trips do you take with your family?"', '"This would be great for you because it has a long battery life and is difficult to break."', '"These are the five cameras that are best for family trips."', ' “This camera here is my favorite, as it has a high-quality zoom."'], 'score': '"What sort of trips do you take with your family?"'}, {'title': 'You work as a sales consultant for ABC computers. While talking to the customer about one of your laptops, the customer mentions a competing laptop from DEF, your direct competitor, that they feel has some advantages over yours.  What should you say?', 'ques_type': 2, 'options': ['“I understand you’re looking for the best laptop. The ABC model has a faster processing speed.”', '“I understand you’re looking for the best laptop. DEF makes a great laptop as well. Either product would be a great choice.”', '“I understand you’re looking for the best laptop. Let’s look at a side-by-side comparison of both products so you can make an informed decision.”', '“I understand you’re looking for the best laptop. Let me tell you all the ways I feel ABC’s laptop is superior to DEF’s.”'], 'score': '“I understand you’re looking for the best laptop. Let’s look at a side-by-side comparison of both products so you can make an informed decision.”'}, {'title': 'You are working at a car dealership where research done by management shows a low rate of return business. To increase your repeat and referral business, you have decided to create a Facebook business page for your customers.  Which of the following actions should most effectively help you achieve your goal?', 'ques_type': 2, 'options': ['Tag them in your feed about sales specials on accessories they might like for their vehicle.', 'Invite them to a group page where you share current news about the company.', 'Like their most popular posts.', 'Send them direct, personalized messages on important dates, such as their birthday and wedding anniversary.'], 'score': 'Send them direct, personalized messages on important dates, such as their birthday and wedding anniversary.'}, {'title': 'True or false: When speaking to potential customers, you should always try to speak the most so you can control the conversation.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "You work in the technology department of a department store. You are conducting a needs assessment with a client to determine the best camera to show them. The client mentions that they will be using the product on family trips.  How should you respond?",
+        "ques_type": 2,
+        "options": [
+            "\"What sort of trips do you take with your family?\"",
+            "\"This would be great for you because it has a long battery life and is difficult to break.\"",
+            "\"These are the five cameras that are best for family trips.\"",
+            " \u201cThis camera here is my favorite, as it has a high-quality zoom.\""
+        ],
+        "score": "\"What sort of trips do you take with your family?\""
+    },
+    {
+        "title": "You work as a sales consultant for ABC computers. While talking to the customer about one of your laptops, the customer mentions a competing laptop from DEF, your direct competitor, that they feel has some advantages over yours.  What should you say?",
+        "ques_type": 2,
+        "options": [
+            "\u201cI understand you\u2019re looking for the best laptop. The ABC model has a faster processing speed.\u201d",
+            "\u201cI understand you\u2019re looking for the best laptop. DEF makes a great laptop as well. Either product would be a great choice.\u201d",
+            "\u201cI understand you\u2019re looking for the best laptop. Let\u2019s look at a side-by-side comparison of both products so you can make an informed decision.\u201d",
+            "\u201cI understand you\u2019re looking for the best laptop. Let me tell you all the ways I feel ABC\u2019s laptop is superior to DEF\u2019s.\u201d"
+        ],
+        "score": "\u201cI understand you\u2019re looking for the best laptop. Let\u2019s look at a side-by-side comparison of both products so you can make an informed decision.\u201d"
+    },
+    {
+        "title": "You are working at a car dealership where research done by management shows a low rate of return business. To increase your repeat and referral business, you have decided to create a Facebook business page for your customers.  Which of the following actions should most effectively help you achieve your goal?",
+        "ques_type": 2,
+        "options": [
+            "Tag them in your feed about sales specials on accessories they might like for their vehicle.",
+            "Invite them to a group page where you share current news about the company.",
+            "Like their most popular posts.",
+            "Send them direct, personalized messages on important dates, such as their birthday and wedding anniversary."
+        ],
+        "score": "Send them direct, personalized messages on important dates, such as their birthday and wedding anniversary."
+    },
+    {
+        "title": "True or false: When speaking to potential customers, you should always try to speak the most so you can control the conversation.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
